--- a/Questões RFP.xlsx
+++ b/Questões RFP.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BF5503-AFEC-42A4-83C2-63116E8B7295}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="3" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="132">
   <si>
     <t>IDENTIFICAÇÃO</t>
   </si>
@@ -293,25 +292,166 @@
     <t>Como é garantido o isolamento das informações entre os clientes da nuvem ou datacenter? Descreva.</t>
   </si>
   <si>
-    <t>(    ) SAAS  (    ) PAAS (    ) IAAS</t>
-  </si>
-  <si>
-    <t>(   ) Nuvem Pública   (   ) Nuvem Privada   (   ) Hibrida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Todos os módulos da solução são atualizados sempre na mesma versão?</t>
+  </si>
+  <si>
+    <t>Site4Now / Locaweb / Smarter</t>
+  </si>
+  <si>
+    <t>( x  ) SAAS  ( x  ) PAAS ( x  ) IAAS</t>
+  </si>
+  <si>
+    <t>(   ) Nuvem Pública   (   ) Nuvem Privada   ( x ) Hibrida</t>
+  </si>
+  <si>
+    <t>Cloud Hosting / VPS</t>
+  </si>
+  <si>
+    <t>Data Center com serviços Cloud, SO, Link e Banco de Dados</t>
+  </si>
+  <si>
+    <t>TIER I</t>
+  </si>
+  <si>
+    <t>América do Sul (São Paulo) / América do Norte (Los Angeles) / Europa (Amisterdã)</t>
+  </si>
+  <si>
+    <t>Sim (Ambas)</t>
+  </si>
+  <si>
+    <t>Disponíveis equipes de Infra-estrutura e Segurança que monitoram o ambiente através de ferramentas, oferecendo dashboards com informações de disponibilidade e estado do ambiente.</t>
+  </si>
+  <si>
+    <t>Através de equipes especializadas nas áreas dentro do Data Center</t>
+  </si>
+  <si>
+    <t>Logs e Jobs com disparos de alertas</t>
+  </si>
+  <si>
+    <t>Os servidores possuem ferramentas de firewalls, detecçao de vírus e malwares</t>
+  </si>
+  <si>
+    <t>Através de relatórios periódicos para análise e alertas</t>
+  </si>
+  <si>
+    <t>Equipamentos alocados dentro do data center</t>
+  </si>
+  <si>
+    <t>Existem servidores virtualizados, e servidores separados para aplicação e banco de dados</t>
+  </si>
+  <si>
+    <t>Utilização do Cloudflare</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>São espelhados e armazenados em sites diferentes, em localidades distintas</t>
+  </si>
+  <si>
+    <t>Até 24 horas</t>
+  </si>
+  <si>
+    <t>Até 12 horas</t>
+  </si>
+  <si>
+    <t>Plano atual realiza um backup full ao dia</t>
+  </si>
+  <si>
+    <t>Sim em storages separados</t>
+  </si>
+  <si>
+    <t>Backup full por um período de 7 dias</t>
+  </si>
+  <si>
+    <t>Em Storages separados</t>
+  </si>
+  <si>
+    <t>Roteadores e firewalls</t>
+  </si>
+  <si>
+    <t>Aos adminstradores terão acesso full, restrito aos demais</t>
+  </si>
+  <si>
+    <t>Existem redundância, não mantém servidores em DMZ</t>
+  </si>
+  <si>
+    <t>Através dos usuários cadastrados no próprio sistema operacional</t>
+  </si>
+  <si>
+    <t>Armazenadas em banco de dados, com criptografia em chave privada</t>
+  </si>
+  <si>
+    <t>Sim, não trafega sem essa segurança</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Implementada autenticação específica</t>
+  </si>
+  <si>
+    <t>Exige apenas um mínimo de caracteres, possibilita troca, e envios da senha por e-mail</t>
+  </si>
+  <si>
+    <t>Valida qtde mínima de caracteres</t>
+  </si>
+  <si>
+    <t>Dentro de regras no banco de dados</t>
+  </si>
+  <si>
+    <t>Detecção, alarmes, extintores, dispositivos de desligamento automático, proteções, etc</t>
+  </si>
+  <si>
+    <t>Dados são logicamente destruídos antes do descarte no ambiente apropriado</t>
+  </si>
+  <si>
+    <t>Certificados TLS / SSL</t>
+  </si>
+  <si>
+    <t>Utiliza dos padrões dos certificados</t>
+  </si>
+  <si>
+    <t>Não exitem planos atuais no momento</t>
+  </si>
+  <si>
+    <t>Profissionais com larga escala de experiência e responsabilidade no setor</t>
+  </si>
+  <si>
+    <t>Através de Logs</t>
+  </si>
+  <si>
+    <t>Monitoramento da equipe de segurança do data center</t>
+  </si>
+  <si>
+    <t>Integrações via API Rest</t>
+  </si>
+  <si>
+    <t>5 Mb</t>
+  </si>
+  <si>
+    <t>20 Mb</t>
+  </si>
+  <si>
+    <t>Além do navegador, o plugin assinador para a leitura do certificado digital</t>
+  </si>
+  <si>
+    <t>Equipe de desenvolvimento disposto para melhorias e customizações</t>
+  </si>
+  <si>
+    <t>Sim, existe compartilhamento dentro da nuvem</t>
+  </si>
+  <si>
+    <t>Tem acesso, porém é efetuado apenas mediante aviso e autorização</t>
+  </si>
+  <si>
+    <t>Virtualização para cada cliente e ambiente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -657,23 +797,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -709,23 +832,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -901,18 +1007,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.85546875" customWidth="1"/>
-    <col min="3" max="3" width="62.28515625" customWidth="1"/>
+    <col min="3" max="3" width="81.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -926,7 +1032,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="24"/>
-      <c r="C2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
@@ -934,7 +1042,7 @@
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -943,7 +1051,7 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -951,14 +1059,18 @@
         <v>4</v>
       </c>
       <c r="B5" s="24"/>
-      <c r="C5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="24"/>
-      <c r="C6" s="14"/>
+      <c r="C6" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
@@ -973,7 +1085,9 @@
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -982,7 +1096,9 @@
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
@@ -997,7 +1113,9 @@
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -1006,7 +1124,9 @@
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
@@ -1021,7 +1141,9 @@
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -1030,7 +1152,9 @@
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -1039,7 +1163,9 @@
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
@@ -1048,7 +1174,9 @@
       <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
@@ -1057,7 +1185,9 @@
       <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="14" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
@@ -1066,7 +1196,9 @@
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="15" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
@@ -1075,7 +1207,9 @@
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
@@ -1090,7 +1224,9 @@
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="12"/>
+      <c r="C22" s="12" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
@@ -1099,7 +1235,9 @@
       <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
@@ -1108,7 +1246,9 @@
       <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="15" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
@@ -1124,7 +1264,9 @@
       <c r="B26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="15" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
@@ -1133,7 +1275,9 @@
       <c r="B27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="15" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
@@ -1142,7 +1286,9 @@
       <c r="B28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="15"/>
+      <c r="C28" s="15" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
@@ -1151,7 +1297,9 @@
       <c r="B29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="15"/>
+      <c r="C29" s="15" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
@@ -1160,7 +1308,9 @@
       <c r="B30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="15" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
@@ -1169,7 +1319,9 @@
       <c r="B31" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
@@ -1178,7 +1330,9 @@
       <c r="B32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="15"/>
+      <c r="C32" s="15" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
@@ -1187,7 +1341,9 @@
       <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="15"/>
+      <c r="C33" s="15" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -1207,7 +1363,9 @@
       <c r="B36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="12"/>
+      <c r="C36" s="12" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
@@ -1216,7 +1374,9 @@
       <c r="B37" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
@@ -1225,7 +1385,9 @@
       <c r="B38" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="14"/>
+      <c r="C38" s="14" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
@@ -1234,7 +1396,9 @@
       <c r="B39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="14"/>
+      <c r="C39" s="14" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
@@ -1243,7 +1407,9 @@
       <c r="B40" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="14"/>
+      <c r="C40" s="14" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
@@ -1252,7 +1418,9 @@
       <c r="B41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="15"/>
+      <c r="C41" s="15" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
@@ -1261,7 +1429,9 @@
       <c r="B42" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="15"/>
+      <c r="C42" s="15" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
@@ -1270,7 +1440,9 @@
       <c r="B43" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="14"/>
+      <c r="C43" s="14" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="44" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
@@ -1279,7 +1451,9 @@
       <c r="B44" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="14"/>
+      <c r="C44" s="14" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
@@ -1288,7 +1462,9 @@
       <c r="B45" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="14"/>
+      <c r="C45" s="14" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="46" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
@@ -1297,7 +1473,9 @@
       <c r="B46" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="14"/>
+      <c r="C46" s="14" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
@@ -1306,7 +1484,9 @@
       <c r="B47" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="14"/>
+      <c r="C47" s="14" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="48" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
@@ -1315,7 +1495,9 @@
       <c r="B48" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="14"/>
+      <c r="C48" s="14" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
@@ -1324,7 +1506,9 @@
       <c r="B49" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
@@ -1333,7 +1517,9 @@
       <c r="B50" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="15"/>
+      <c r="C50" s="15" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
@@ -1342,7 +1528,9 @@
       <c r="B51" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="15"/>
+      <c r="C51" s="15" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="52" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
@@ -1352,7 +1540,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1362,7 +1550,9 @@
       <c r="B53" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="15"/>
+      <c r="C53" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="54" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
@@ -1371,7 +1561,9 @@
       <c r="B54" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="15"/>
+      <c r="C54" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
@@ -1391,7 +1583,9 @@
       <c r="B57" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="13"/>
+      <c r="C57" s="13" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="58" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
@@ -1400,7 +1594,9 @@
       <c r="B58" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="14"/>
+      <c r="C58" s="14" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="59" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
@@ -1409,7 +1605,9 @@
       <c r="B59" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="15"/>
+      <c r="C59" s="15" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="60" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
@@ -1418,7 +1616,9 @@
       <c r="B60" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="61" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="s">
@@ -1433,7 +1633,9 @@
       <c r="B62" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="13"/>
+      <c r="C62" s="13" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="63" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
@@ -1442,7 +1644,9 @@
       <c r="B63" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="15"/>
+      <c r="C63" s="13" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
@@ -1451,7 +1655,9 @@
       <c r="B64" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="15"/>
+      <c r="C64" s="13" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="65" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
@@ -1466,7 +1672,9 @@
       <c r="B66" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="12"/>
+      <c r="C66" s="12" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="67" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
@@ -1475,7 +1683,9 @@
       <c r="B67" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="16"/>
+      <c r="C67" s="16" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="68" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
@@ -1484,7 +1694,9 @@
       <c r="B68" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="14"/>
+      <c r="C68" s="14" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="69" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="21" t="s">
@@ -1499,7 +1711,9 @@
       <c r="B70" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="13"/>
+      <c r="C70" s="13" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="71" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
@@ -1508,7 +1722,9 @@
       <c r="B71" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="14"/>
+      <c r="C71" s="14" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="72" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="21" t="s">
@@ -1523,7 +1739,9 @@
       <c r="B73" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C73" s="13"/>
+      <c r="C73" s="13" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="74" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
@@ -1532,7 +1750,9 @@
       <c r="B74" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="75" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
@@ -1541,7 +1761,9 @@
       <c r="B75" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="15"/>
+      <c r="C75" s="15" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
@@ -1550,7 +1772,9 @@
       <c r="B76" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="15"/>
+      <c r="C76" s="15" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="77" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
@@ -1559,7 +1783,9 @@
       <c r="B77" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C77" s="15"/>
+      <c r="C77" s="15" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="78" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="17" t="s">
@@ -1575,16 +1801,20 @@
       <c r="B79" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="80" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>60</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" s="15"/>
+        <v>80</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="81" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
@@ -1601,7 +1831,7 @@
         <v>77</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1611,7 +1841,9 @@
       <c r="B83" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="3" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="84" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
@@ -1620,7 +1852,9 @@
       <c r="B84" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
